--- a/speedregions.excelshp/odlstudio/Template2.xlsx
+++ b/speedregions.excelshp/odlstudio/Template2.xlsx
@@ -10,12 +10,13 @@
     <sheet name="Bricks" r:id="rId4" sheetId="2"/>
     <sheet name="ExampleJourneys" r:id="rId5" sheetId="3"/>
     <sheet name="SpeedProfilesCar" r:id="rId6" sheetId="4"/>
+    <sheet name="SpeedProfilesMotorcycle" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" count="6269" uniqueCount="2980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" count="6644" uniqueCount="2988">
   <si>
     <t>id</t>
   </si>
@@ -824,15 +825,15 @@
     <t>BR6</t>
   </si>
   <si>
+    <t>07</t>
+  </si>
+  <si>
     <t>BR7</t>
   </si>
   <si>
     <t>BR8</t>
   </si>
   <si>
-    <t>07</t>
-  </si>
-  <si>
     <t>BS0</t>
   </si>
   <si>
@@ -2132,66 +2133,66 @@
     <t>E1</t>
   </si>
   <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>E1W</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E77</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>E13</t>
-  </si>
-  <si>
-    <t>E14</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>E15</t>
-  </si>
-  <si>
-    <t>E16</t>
-  </si>
-  <si>
-    <t>E17</t>
-  </si>
-  <si>
-    <t>E18</t>
-  </si>
-  <si>
-    <t>E1W</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E20</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>E77</t>
-  </si>
-  <si>
     <t>E8</t>
   </si>
   <si>
@@ -8393,6 +8394,99 @@
     <t>WF17</t>
   </si>
   <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>fill_colour</t>
+  </si>
+  <si>
+    <t>speed_unit</t>
+  </si>
+  <si>
+    <t>speed_motorway</t>
+  </si>
+  <si>
+    <t>speed_motorway_link</t>
+  </si>
+  <si>
+    <t>speed_motorroad</t>
+  </si>
+  <si>
+    <t>speed_trunk</t>
+  </si>
+  <si>
+    <t>speed_trunk_link</t>
+  </si>
+  <si>
+    <t>speed_primary</t>
+  </si>
+  <si>
+    <t>speed_primary_link</t>
+  </si>
+  <si>
+    <t>speed_secondary</t>
+  </si>
+  <si>
+    <t>speed_secondary_link</t>
+  </si>
+  <si>
+    <t>speed_tertiary</t>
+  </si>
+  <si>
+    <t>speed_tertiary_link</t>
+  </si>
+  <si>
+    <t>speed_unclassified</t>
+  </si>
+  <si>
+    <t>speed_residential</t>
+  </si>
+  <si>
+    <t>speed_living_street</t>
+  </si>
+  <si>
+    <t>speed_service</t>
+  </si>
+  <si>
+    <t>speed_road</t>
+  </si>
+  <si>
+    <t>speed_track</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>#9400d3</t>
+  </si>
+  <si>
+    <t>#4b0082</t>
+  </si>
+  <si>
+    <t>#0000ff</t>
+  </si>
+  <si>
+    <t>#00ff00</t>
+  </si>
+  <si>
+    <t>#ffff00</t>
+  </si>
+  <si>
+    <t>#ff7f00</t>
+  </si>
+  <si>
+    <t>#ff0000</t>
+  </si>
+  <si>
+    <t>#ffbbbb</t>
+  </si>
+  <si>
+    <t>#8888ff</t>
+  </si>
+  <si>
     <t>from_name</t>
   </si>
   <si>
@@ -8447,7 +8541,7 @@
     <t>Poplar</t>
   </si>
   <si>
-    <t>01:28:00</t>
+    <t>01:18:00</t>
   </si>
   <si>
     <t>MEDIUM</t>
@@ -8498,141 +8592,369 @@
     <t>00:15:00</t>
   </si>
   <si>
-    <t>parent_id</t>
-  </si>
-  <si>
-    <t>multiplier</t>
-  </si>
-  <si>
-    <t>fill_colour</t>
-  </si>
-  <si>
-    <t>speed_unit</t>
-  </si>
-  <si>
-    <t>speed_motorway</t>
-  </si>
-  <si>
-    <t>speed_motorway_link</t>
-  </si>
-  <si>
-    <t>speed_motorroad</t>
-  </si>
-  <si>
-    <t>speed_trunk</t>
-  </si>
-  <si>
-    <t>speed_trunk_link</t>
-  </si>
-  <si>
-    <t>speed_primary</t>
-  </si>
-  <si>
-    <t>speed_primary_link</t>
-  </si>
-  <si>
-    <t>speed_secondary</t>
-  </si>
-  <si>
-    <t>speed_secondary_link</t>
-  </si>
-  <si>
-    <t>speed_tertiary</t>
-  </si>
-  <si>
-    <t>speed_tertiary_link</t>
-  </si>
-  <si>
-    <t>speed_unclassified</t>
-  </si>
-  <si>
-    <t>speed_residential</t>
-  </si>
-  <si>
-    <t>speed_living_street</t>
-  </si>
-  <si>
-    <t>speed_service</t>
-  </si>
-  <si>
-    <t>speed_road</t>
-  </si>
-  <si>
-    <t>speed_track</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>#9400d3</t>
-  </si>
-  <si>
-    <t>#4b0082</t>
-  </si>
-  <si>
-    <t>#0000ff</t>
-  </si>
-  <si>
-    <t>#00ff00</t>
-  </si>
-  <si>
-    <t>#ffff00</t>
-  </si>
-  <si>
-    <t>#ff7f00</t>
-  </si>
-  <si>
-    <t>#ff0000</t>
-  </si>
-  <si>
-    <t>#ffbbbb</t>
-  </si>
-  <si>
-    <t>#8888ff</t>
+    <t>Stratford</t>
+  </si>
+  <si>
+    <t>-0.002966</t>
+  </si>
+  <si>
+    <t>00:30:00</t>
+  </si>
+  <si>
+    <t>Elephant and Castle</t>
+  </si>
+  <si>
+    <t>-0.101103</t>
+  </si>
+  <si>
+    <t>Deptford</t>
+  </si>
+  <si>
+    <t>00:26:30</t>
+  </si>
+  <si>
+    <t>WF2</t>
+  </si>
+  <si>
+    <t>WF3</t>
+  </si>
+  <si>
+    <t>WF4</t>
+  </si>
+  <si>
+    <t>WF5</t>
+  </si>
+  <si>
+    <t>WF6</t>
+  </si>
+  <si>
+    <t>WF7</t>
+  </si>
+  <si>
+    <t>WF8</t>
+  </si>
+  <si>
+    <t>WF9</t>
+  </si>
+  <si>
+    <t>WF90</t>
+  </si>
+  <si>
+    <t>WN1</t>
+  </si>
+  <si>
+    <t>WN2</t>
+  </si>
+  <si>
+    <t>WN3</t>
+  </si>
+  <si>
+    <t>WN4</t>
+  </si>
+  <si>
+    <t>WN5</t>
+  </si>
+  <si>
+    <t>WN6</t>
+  </si>
+  <si>
+    <t>WN7</t>
+  </si>
+  <si>
+    <t>WN8</t>
+  </si>
+  <si>
+    <t>WR1</t>
+  </si>
+  <si>
+    <t>WR10</t>
+  </si>
+  <si>
+    <t>WR11</t>
+  </si>
+  <si>
+    <t>WR12</t>
+  </si>
+  <si>
+    <t>WR13</t>
+  </si>
+  <si>
+    <t>WR14</t>
+  </si>
+  <si>
+    <t>WR15</t>
+  </si>
+  <si>
+    <t>WR2</t>
+  </si>
+  <si>
+    <t>WR3</t>
+  </si>
+  <si>
+    <t>WR4</t>
+  </si>
+  <si>
+    <t>WR5</t>
+  </si>
+  <si>
+    <t>WR6</t>
+  </si>
+  <si>
+    <t>WR7</t>
+  </si>
+  <si>
+    <t>WR8</t>
+  </si>
+  <si>
+    <t>WR9</t>
+  </si>
+  <si>
+    <t>WR99</t>
+  </si>
+  <si>
+    <t>WS1</t>
+  </si>
+  <si>
+    <t>WS10</t>
+  </si>
+  <si>
+    <t>WS11</t>
+  </si>
+  <si>
+    <t>WS12</t>
+  </si>
+  <si>
+    <t>WS13</t>
+  </si>
+  <si>
+    <t>WS14</t>
+  </si>
+  <si>
+    <t>WS15</t>
+  </si>
+  <si>
+    <t>WS2</t>
+  </si>
+  <si>
+    <t>WS3</t>
+  </si>
+  <si>
+    <t>WS4</t>
+  </si>
+  <si>
+    <t>WS5</t>
+  </si>
+  <si>
+    <t>WS6</t>
+  </si>
+  <si>
+    <t>WS7</t>
+  </si>
+  <si>
+    <t>WS8</t>
+  </si>
+  <si>
+    <t>WS9</t>
+  </si>
+  <si>
+    <t>WV1</t>
+  </si>
+  <si>
+    <t>WV10</t>
+  </si>
+  <si>
+    <t>WV11</t>
+  </si>
+  <si>
+    <t>WV12</t>
+  </si>
+  <si>
+    <t>WV13</t>
+  </si>
+  <si>
+    <t>WV14</t>
+  </si>
+  <si>
+    <t>WV15</t>
+  </si>
+  <si>
+    <t>WV16</t>
+  </si>
+  <si>
+    <t>WV2</t>
+  </si>
+  <si>
+    <t>WV3</t>
+  </si>
+  <si>
+    <t>WV4</t>
+  </si>
+  <si>
+    <t>WV5</t>
+  </si>
+  <si>
+    <t>WV6</t>
+  </si>
+  <si>
+    <t>WV7</t>
+  </si>
+  <si>
+    <t>WV8</t>
+  </si>
+  <si>
+    <t>WV9</t>
+  </si>
+  <si>
+    <t>WV98</t>
+  </si>
+  <si>
+    <t>WV99</t>
+  </si>
+  <si>
+    <t>YO1</t>
+  </si>
+  <si>
+    <t>YO10</t>
+  </si>
+  <si>
+    <t>YO11</t>
+  </si>
+  <si>
+    <t>YO12</t>
+  </si>
+  <si>
+    <t>YO13</t>
+  </si>
+  <si>
+    <t>YO14</t>
+  </si>
+  <si>
+    <t>YO15</t>
+  </si>
+  <si>
+    <t>YO16</t>
+  </si>
+  <si>
+    <t>YO17</t>
+  </si>
+  <si>
+    <t>YO18</t>
+  </si>
+  <si>
+    <t>YO19</t>
+  </si>
+  <si>
+    <t>YO21</t>
+  </si>
+  <si>
+    <t>YO22</t>
+  </si>
+  <si>
+    <t>YO23</t>
+  </si>
+  <si>
+    <t>YO24</t>
+  </si>
+  <si>
+    <t>YO25</t>
+  </si>
+  <si>
+    <t>YO26</t>
+  </si>
+  <si>
+    <t>YO30</t>
+  </si>
+  <si>
+    <t>YO31</t>
+  </si>
+  <si>
+    <t>YO32</t>
+  </si>
+  <si>
+    <t>YO41</t>
+  </si>
+  <si>
+    <t>YO42</t>
+  </si>
+  <si>
+    <t>YO43</t>
+  </si>
+  <si>
+    <t>YO51</t>
+  </si>
+  <si>
+    <t>YO60</t>
+  </si>
+  <si>
+    <t>YO61</t>
+  </si>
+  <si>
+    <t>YO62</t>
+  </si>
+  <si>
+    <t>YO7</t>
+  </si>
+  <si>
+    <t>YO8</t>
+  </si>
+  <si>
+    <t>YO90</t>
+  </si>
+  <si>
+    <t>YO91</t>
+  </si>
+  <si>
+    <t>ZE1</t>
+  </si>
+  <si>
+    <t>ZE2</t>
+  </si>
+  <si>
+    <t>ZE3</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>AppVersion</t>
+  </si>
+  <si>
+    <t>1.3.6</t>
+  </si>
+  <si>
+    <t>TableName</t>
+  </si>
+  <si>
+    <t>ColumnName</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>DefaultValue</t>
+  </si>
+  <si>
+    <t>Flags</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Bricks</t>
+  </si>
+  <si>
+    <t>STRING</t>
   </si>
   <si>
     <t xsi:nil="true"/>
   </si>
   <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>AppVersion</t>
-  </si>
-  <si>
-    <t>1.3.6</t>
-  </si>
-  <si>
-    <t>TableName</t>
-  </si>
-  <si>
-    <t>ColumnName</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>DefaultValue</t>
-  </si>
-  <si>
-    <t>Flags</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>Bricks</t>
-  </si>
-  <si>
-    <t>STRING</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -8657,304 +8979,7 @@
     <t>COLOUR</t>
   </si>
   <si>
-    <t>WF2</t>
-  </si>
-  <si>
-    <t>WF3</t>
-  </si>
-  <si>
-    <t>WF4</t>
-  </si>
-  <si>
-    <t>WF5</t>
-  </si>
-  <si>
-    <t>WF6</t>
-  </si>
-  <si>
-    <t>WF7</t>
-  </si>
-  <si>
-    <t>WF8</t>
-  </si>
-  <si>
-    <t>WF9</t>
-  </si>
-  <si>
-    <t>WF90</t>
-  </si>
-  <si>
-    <t>WN1</t>
-  </si>
-  <si>
-    <t>WN2</t>
-  </si>
-  <si>
-    <t>WN3</t>
-  </si>
-  <si>
-    <t>WN4</t>
-  </si>
-  <si>
-    <t>WN5</t>
-  </si>
-  <si>
-    <t>WN6</t>
-  </si>
-  <si>
-    <t>WN7</t>
-  </si>
-  <si>
-    <t>WN8</t>
-  </si>
-  <si>
-    <t>WR1</t>
-  </si>
-  <si>
-    <t>WR10</t>
-  </si>
-  <si>
-    <t>WR11</t>
-  </si>
-  <si>
-    <t>WR12</t>
-  </si>
-  <si>
-    <t>WR13</t>
-  </si>
-  <si>
-    <t>WR14</t>
-  </si>
-  <si>
-    <t>WR15</t>
-  </si>
-  <si>
-    <t>WR2</t>
-  </si>
-  <si>
-    <t>WR3</t>
-  </si>
-  <si>
-    <t>WR4</t>
-  </si>
-  <si>
-    <t>WR5</t>
-  </si>
-  <si>
-    <t>WR6</t>
-  </si>
-  <si>
-    <t>WR7</t>
-  </si>
-  <si>
-    <t>WR8</t>
-  </si>
-  <si>
-    <t>WR9</t>
-  </si>
-  <si>
-    <t>WR99</t>
-  </si>
-  <si>
-    <t>WS1</t>
-  </si>
-  <si>
-    <t>WS10</t>
-  </si>
-  <si>
-    <t>WS11</t>
-  </si>
-  <si>
-    <t>WS12</t>
-  </si>
-  <si>
-    <t>WS13</t>
-  </si>
-  <si>
-    <t>WS14</t>
-  </si>
-  <si>
-    <t>WS15</t>
-  </si>
-  <si>
-    <t>WS2</t>
-  </si>
-  <si>
-    <t>WS3</t>
-  </si>
-  <si>
-    <t>WS4</t>
-  </si>
-  <si>
-    <t>WS5</t>
-  </si>
-  <si>
-    <t>WS6</t>
-  </si>
-  <si>
-    <t>WS7</t>
-  </si>
-  <si>
-    <t>WS8</t>
-  </si>
-  <si>
-    <t>WS9</t>
-  </si>
-  <si>
-    <t>WV1</t>
-  </si>
-  <si>
-    <t>WV10</t>
-  </si>
-  <si>
-    <t>WV11</t>
-  </si>
-  <si>
-    <t>WV12</t>
-  </si>
-  <si>
-    <t>WV13</t>
-  </si>
-  <si>
-    <t>WV14</t>
-  </si>
-  <si>
-    <t>WV15</t>
-  </si>
-  <si>
-    <t>WV16</t>
-  </si>
-  <si>
-    <t>WV2</t>
-  </si>
-  <si>
-    <t>WV3</t>
-  </si>
-  <si>
-    <t>WV4</t>
-  </si>
-  <si>
-    <t>WV5</t>
-  </si>
-  <si>
-    <t>WV6</t>
-  </si>
-  <si>
-    <t>WV7</t>
-  </si>
-  <si>
-    <t>WV8</t>
-  </si>
-  <si>
-    <t>WV9</t>
-  </si>
-  <si>
-    <t>WV98</t>
-  </si>
-  <si>
-    <t>WV99</t>
-  </si>
-  <si>
-    <t>YO1</t>
-  </si>
-  <si>
-    <t>YO10</t>
-  </si>
-  <si>
-    <t>YO11</t>
-  </si>
-  <si>
-    <t>YO12</t>
-  </si>
-  <si>
-    <t>YO13</t>
-  </si>
-  <si>
-    <t>YO14</t>
-  </si>
-  <si>
-    <t>YO15</t>
-  </si>
-  <si>
-    <t>YO16</t>
-  </si>
-  <si>
-    <t>YO17</t>
-  </si>
-  <si>
-    <t>YO18</t>
-  </si>
-  <si>
-    <t>YO19</t>
-  </si>
-  <si>
-    <t>YO21</t>
-  </si>
-  <si>
-    <t>YO22</t>
-  </si>
-  <si>
-    <t>YO23</t>
-  </si>
-  <si>
-    <t>YO24</t>
-  </si>
-  <si>
-    <t>YO25</t>
-  </si>
-  <si>
-    <t>YO26</t>
-  </si>
-  <si>
-    <t>YO30</t>
-  </si>
-  <si>
-    <t>YO31</t>
-  </si>
-  <si>
-    <t>YO32</t>
-  </si>
-  <si>
-    <t>YO41</t>
-  </si>
-  <si>
-    <t>YO42</t>
-  </si>
-  <si>
-    <t>YO43</t>
-  </si>
-  <si>
-    <t>YO51</t>
-  </si>
-  <si>
-    <t>YO60</t>
-  </si>
-  <si>
-    <t>YO61</t>
-  </si>
-  <si>
-    <t>YO62</t>
-  </si>
-  <si>
-    <t>YO7</t>
-  </si>
-  <si>
-    <t>YO8</t>
-  </si>
-  <si>
-    <t>YO90</t>
-  </si>
-  <si>
-    <t>YO91</t>
-  </si>
-  <si>
-    <t>ZE1</t>
-  </si>
-  <si>
-    <t>ZE2</t>
-  </si>
-  <si>
-    <t>ZE3</t>
+    <t>SpeedProfilesMotorcycle</t>
   </si>
 </sst>
 </file>
@@ -9007,800 +9032,1306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2859</v>
+        <v>2965</v>
       </c>
       <c r="B1" t="s">
-        <v>2860</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2861</v>
+        <v>2967</v>
       </c>
       <c r="B2" t="s">
-        <v>2862</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2863</v>
+        <v>2969</v>
       </c>
       <c r="B4" t="s">
-        <v>2864</v>
+        <v>2970</v>
       </c>
       <c r="C4" t="s">
-        <v>2865</v>
+        <v>2971</v>
       </c>
       <c r="D4" t="s">
-        <v>2866</v>
+        <v>2972</v>
       </c>
       <c r="E4" t="s">
-        <v>2867</v>
+        <v>2973</v>
       </c>
       <c r="F4" t="s">
-        <v>2868</v>
+        <v>2974</v>
       </c>
       <c r="G4" t="s">
-        <v>2869</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2870</v>
+        <v>2976</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E5" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F5" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2870</v>
+        <v>2976</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E6" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F6" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2870</v>
+        <v>2976</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>2873</v>
+        <v>2980</v>
       </c>
       <c r="D7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E7" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F7" t="s">
-        <v>2874</v>
+        <v>2981</v>
       </c>
       <c r="G7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2875</v>
+        <v>2982</v>
       </c>
       <c r="B8" t="s">
-        <v>2792</v>
+        <v>2823</v>
       </c>
       <c r="C8" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E8" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F8" t="s">
-        <v>2874</v>
+        <v>2981</v>
       </c>
       <c r="G8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2875</v>
+        <v>2982</v>
       </c>
       <c r="B9" t="s">
-        <v>2793</v>
+        <v>2824</v>
       </c>
       <c r="C9" t="s">
-        <v>2876</v>
+        <v>2983</v>
       </c>
       <c r="D9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E9" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F9" t="s">
-        <v>2874</v>
+        <v>2981</v>
       </c>
       <c r="G9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2875</v>
+        <v>2982</v>
       </c>
       <c r="B10" t="s">
-        <v>2794</v>
+        <v>2825</v>
       </c>
       <c r="C10" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D10" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E10" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F10" t="s">
-        <v>2874</v>
+        <v>2981</v>
       </c>
       <c r="G10" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2875</v>
+        <v>2982</v>
       </c>
       <c r="B11" t="s">
-        <v>2795</v>
+        <v>2826</v>
       </c>
       <c r="C11" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D11" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E11" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F11" t="s">
-        <v>2874</v>
+        <v>2981</v>
       </c>
       <c r="G11" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2875</v>
+        <v>2982</v>
       </c>
       <c r="B12" t="s">
-        <v>2796</v>
+        <v>2827</v>
       </c>
       <c r="C12" t="s">
-        <v>2876</v>
+        <v>2983</v>
       </c>
       <c r="D12" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E12" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F12" t="s">
-        <v>2874</v>
+        <v>2981</v>
       </c>
       <c r="G12" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2875</v>
+        <v>2982</v>
       </c>
       <c r="B13" t="s">
-        <v>2797</v>
+        <v>2828</v>
       </c>
       <c r="C13" t="s">
-        <v>2876</v>
+        <v>2983</v>
       </c>
       <c r="D13" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E13" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F13" t="s">
-        <v>2874</v>
+        <v>2981</v>
       </c>
       <c r="G13" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2875</v>
+        <v>2982</v>
       </c>
       <c r="B14" t="s">
-        <v>2798</v>
+        <v>2829</v>
       </c>
       <c r="C14" t="s">
-        <v>2877</v>
+        <v>2984</v>
       </c>
       <c r="D14" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E14" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F14" t="s">
-        <v>2874</v>
+        <v>2981</v>
       </c>
       <c r="G14" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2875</v>
+        <v>2982</v>
       </c>
       <c r="B15" t="s">
-        <v>2799</v>
+        <v>2830</v>
       </c>
       <c r="C15" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D15" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E15" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F15" t="s">
-        <v>2874</v>
+        <v>2981</v>
       </c>
       <c r="G15" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D16" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E16" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F16" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G16" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B17" t="s">
-        <v>2827</v>
+        <v>2792</v>
       </c>
       <c r="C17" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D17" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E17" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F17" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G17" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B18" t="s">
-        <v>2828</v>
+        <v>2793</v>
       </c>
       <c r="C18" t="s">
-        <v>2876</v>
+        <v>2983</v>
       </c>
       <c r="D18" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E18" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F18" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G18" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B19" t="s">
-        <v>2829</v>
+        <v>2794</v>
       </c>
       <c r="C19" t="s">
-        <v>2879</v>
+        <v>2986</v>
       </c>
       <c r="D19" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E19" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F19" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G19" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B20" t="s">
-        <v>2830</v>
+        <v>2795</v>
       </c>
       <c r="C20" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D20" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E20" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F20" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G20" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B21" t="s">
-        <v>2831</v>
+        <v>2796</v>
       </c>
       <c r="C21" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D21" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E21" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F21" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G21" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B22" t="s">
-        <v>2832</v>
+        <v>2797</v>
       </c>
       <c r="C22" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D22" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E22" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F22" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G22" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B23" t="s">
-        <v>2833</v>
+        <v>2798</v>
       </c>
       <c r="C23" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D23" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E23" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F23" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G23" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B24" t="s">
-        <v>2834</v>
+        <v>2799</v>
       </c>
       <c r="C24" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D24" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E24" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F24" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G24" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B25" t="s">
-        <v>2835</v>
+        <v>2800</v>
       </c>
       <c r="C25" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D25" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E25" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F25" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G25" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B26" t="s">
-        <v>2836</v>
+        <v>2801</v>
       </c>
       <c r="C26" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D26" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E26" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F26" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G26" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B27" t="s">
-        <v>2837</v>
+        <v>2802</v>
       </c>
       <c r="C27" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D27" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E27" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F27" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G27" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B28" t="s">
-        <v>2838</v>
+        <v>2803</v>
       </c>
       <c r="C28" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D28" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E28" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F28" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G28" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B29" t="s">
-        <v>2839</v>
+        <v>2804</v>
       </c>
       <c r="C29" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D29" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E29" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F29" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G29" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B30" t="s">
-        <v>2840</v>
+        <v>2805</v>
       </c>
       <c r="C30" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D30" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E30" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F30" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G30" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B31" t="s">
-        <v>2841</v>
+        <v>2806</v>
       </c>
       <c r="C31" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D31" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E31" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F31" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G31" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B32" t="s">
-        <v>2842</v>
+        <v>2807</v>
       </c>
       <c r="C32" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D32" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E32" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F32" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G32" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B33" t="s">
-        <v>2843</v>
+        <v>2808</v>
       </c>
       <c r="C33" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D33" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E33" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F33" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G33" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B34" t="s">
-        <v>2844</v>
+        <v>2809</v>
       </c>
       <c r="C34" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D34" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E34" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F34" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G34" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B35" t="s">
-        <v>2845</v>
+        <v>2810</v>
       </c>
       <c r="C35" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D35" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E35" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F35" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G35" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B36" t="s">
-        <v>2846</v>
+        <v>2811</v>
       </c>
       <c r="C36" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D36" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E36" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F36" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G36" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>2878</v>
+        <v>2985</v>
       </c>
       <c r="B37" t="s">
-        <v>2847</v>
+        <v>2812</v>
       </c>
       <c r="C37" t="s">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="D37" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="E37" t="s">
-        <v>2858</v>
+        <v>2978</v>
       </c>
       <c r="F37" t="s">
-        <v>2872</v>
+        <v>2979</v>
       </c>
       <c r="G37" t="s">
-        <v>2848</v>
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2793</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2798</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G45" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G54" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2809</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G56" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G57" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2813</v>
       </c>
     </row>
   </sheetData>
@@ -12172,13 +12703,13 @@
         <v>268</v>
       </c>
       <c r="B262" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B263" t="s">
         <v>262</v>
@@ -12187,10 +12718,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B264" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C264"/>
     </row>
@@ -13666,7 +14197,7 @@
         <v>435</v>
       </c>
       <c r="B428" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C428"/>
     </row>
@@ -13756,7 +14287,7 @@
         <v>445</v>
       </c>
       <c r="B438" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C438"/>
     </row>
@@ -13783,7 +14314,7 @@
         <v>448</v>
       </c>
       <c r="B441" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C441"/>
     </row>
@@ -13792,7 +14323,7 @@
         <v>449</v>
       </c>
       <c r="B442" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C442"/>
     </row>
@@ -14062,7 +14593,7 @@
         <v>479</v>
       </c>
       <c r="B472" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C472"/>
     </row>
@@ -14071,7 +14602,7 @@
         <v>480</v>
       </c>
       <c r="B473" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C473"/>
     </row>
@@ -14089,7 +14620,7 @@
         <v>482</v>
       </c>
       <c r="B475" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C475"/>
     </row>
@@ -14098,7 +14629,7 @@
         <v>483</v>
       </c>
       <c r="B476" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C476"/>
     </row>
@@ -14107,7 +14638,7 @@
         <v>484</v>
       </c>
       <c r="B477" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C477"/>
     </row>
@@ -14125,7 +14656,7 @@
         <v>486</v>
       </c>
       <c r="B479" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C479"/>
     </row>
@@ -14143,7 +14674,7 @@
         <v>488</v>
       </c>
       <c r="B481" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C481"/>
     </row>
@@ -14683,7 +15214,7 @@
         <v>548</v>
       </c>
       <c r="B541" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C541"/>
     </row>
@@ -14773,7 +15304,7 @@
         <v>558</v>
       </c>
       <c r="B551" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C551"/>
     </row>
@@ -14800,7 +15331,7 @@
         <v>561</v>
       </c>
       <c r="B554" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C554"/>
     </row>
@@ -14809,7 +15340,7 @@
         <v>562</v>
       </c>
       <c r="B555" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C555"/>
     </row>
@@ -14818,7 +15349,7 @@
         <v>563</v>
       </c>
       <c r="B556" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C556"/>
     </row>
@@ -14827,7 +15358,7 @@
         <v>564</v>
       </c>
       <c r="B557" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C557"/>
     </row>
@@ -16096,7 +16627,7 @@
         <v>706</v>
       </c>
       <c r="B698" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C698"/>
     </row>
@@ -16114,7 +16645,7 @@
         <v>708</v>
       </c>
       <c r="B700" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C700"/>
     </row>
@@ -16132,22 +16663,22 @@
         <v>710</v>
       </c>
       <c r="B702" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C702"/>
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B703" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C703"/>
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B704" t="s">
         <v>262</v>
@@ -16156,7 +16687,7 @@
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B705" t="s">
         <v>264</v>
@@ -16165,16 +16696,16 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B706" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C706"/>
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B707" t="s">
         <v>705</v>
@@ -16183,7 +16714,7 @@
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B708" t="s">
         <v>705</v>
@@ -16192,64 +16723,64 @@
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B709" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C709"/>
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B710" t="s">
-        <v>711</v>
+        <v>262</v>
       </c>
       <c r="C710"/>
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B711" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C711"/>
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B712" t="s">
-        <v>711</v>
+        <v>262</v>
       </c>
       <c r="C712"/>
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B713" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C713"/>
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B714" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C714"/>
     </row>
     <row r="715">
       <c r="A715" t="s">
+        <v>723</v>
+      </c>
+      <c r="B715" t="s">
         <v>724</v>
-      </c>
-      <c r="B715" t="s">
-        <v>705</v>
       </c>
       <c r="C715"/>
     </row>
@@ -16258,7 +16789,7 @@
         <v>725</v>
       </c>
       <c r="B716" t="s">
-        <v>711</v>
+        <v>262</v>
       </c>
       <c r="C716"/>
     </row>
@@ -16267,7 +16798,7 @@
         <v>726</v>
       </c>
       <c r="B717" t="s">
-        <v>711</v>
+        <v>262</v>
       </c>
       <c r="C717"/>
     </row>
@@ -16276,7 +16807,7 @@
         <v>727</v>
       </c>
       <c r="B718" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C718"/>
     </row>
@@ -16285,7 +16816,7 @@
         <v>728</v>
       </c>
       <c r="B719" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C719"/>
     </row>
@@ -16294,7 +16825,7 @@
         <v>729</v>
       </c>
       <c r="B720" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C720"/>
     </row>
@@ -16303,7 +16834,7 @@
         <v>730</v>
       </c>
       <c r="B721" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C721"/>
     </row>
@@ -16312,7 +16843,7 @@
         <v>731</v>
       </c>
       <c r="B722" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C722"/>
     </row>
@@ -16321,7 +16852,7 @@
         <v>732</v>
       </c>
       <c r="B723" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C723"/>
     </row>
@@ -16330,7 +16861,7 @@
         <v>733</v>
       </c>
       <c r="B724" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C724"/>
     </row>
@@ -16339,7 +16870,7 @@
         <v>734</v>
       </c>
       <c r="B725" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C725"/>
     </row>
@@ -16348,7 +16879,7 @@
         <v>735</v>
       </c>
       <c r="B726" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C726"/>
     </row>
@@ -16357,7 +16888,7 @@
         <v>736</v>
       </c>
       <c r="B727" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C727"/>
     </row>
@@ -16366,7 +16897,7 @@
         <v>737</v>
       </c>
       <c r="B728" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C728"/>
     </row>
@@ -16375,7 +16906,7 @@
         <v>738</v>
       </c>
       <c r="B729" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C729"/>
     </row>
@@ -16384,7 +16915,7 @@
         <v>739</v>
       </c>
       <c r="B730" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C730"/>
     </row>
@@ -16402,7 +16933,7 @@
         <v>742</v>
       </c>
       <c r="B732" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C732"/>
     </row>
@@ -16411,7 +16942,7 @@
         <v>743</v>
       </c>
       <c r="B733" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C733"/>
     </row>
@@ -16420,7 +16951,7 @@
         <v>744</v>
       </c>
       <c r="B734" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C734"/>
     </row>
@@ -16429,7 +16960,7 @@
         <v>745</v>
       </c>
       <c r="B735" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C735"/>
     </row>
@@ -16438,7 +16969,7 @@
         <v>746</v>
       </c>
       <c r="B736" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C736"/>
     </row>
@@ -16447,7 +16978,7 @@
         <v>747</v>
       </c>
       <c r="B737" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C737"/>
     </row>
@@ -16456,7 +16987,7 @@
         <v>748</v>
       </c>
       <c r="B738" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C738"/>
     </row>
@@ -16492,7 +17023,7 @@
         <v>752</v>
       </c>
       <c r="B742" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C742"/>
     </row>
@@ -16528,7 +17059,7 @@
         <v>756</v>
       </c>
       <c r="B746" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C746"/>
     </row>
@@ -17050,7 +17581,7 @@
         <v>814</v>
       </c>
       <c r="B804" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C804"/>
     </row>
@@ -17077,7 +17608,7 @@
         <v>817</v>
       </c>
       <c r="B807" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C807"/>
     </row>
@@ -17086,7 +17617,7 @@
         <v>818</v>
       </c>
       <c r="B808" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C808"/>
     </row>
@@ -17095,7 +17626,7 @@
         <v>819</v>
       </c>
       <c r="B809" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C809"/>
     </row>
@@ -17104,7 +17635,7 @@
         <v>820</v>
       </c>
       <c r="B810" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C810"/>
     </row>
@@ -18562,7 +19093,7 @@
         <v>982</v>
       </c>
       <c r="B972" t="s">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="C972"/>
     </row>
@@ -18571,7 +19102,7 @@
         <v>983</v>
       </c>
       <c r="B973" t="s">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="C973"/>
     </row>
@@ -18580,7 +19111,7 @@
         <v>984</v>
       </c>
       <c r="B974" t="s">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="C974"/>
     </row>
@@ -18589,7 +19120,7 @@
         <v>985</v>
       </c>
       <c r="B975" t="s">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="C975"/>
     </row>
@@ -18598,7 +19129,7 @@
         <v>986</v>
       </c>
       <c r="B976" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C976"/>
     </row>
@@ -18688,7 +19219,7 @@
         <v>996</v>
       </c>
       <c r="B986" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C986"/>
     </row>
@@ -18805,7 +19336,7 @@
         <v>1009</v>
       </c>
       <c r="B999" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C999"/>
     </row>
@@ -18823,7 +19354,7 @@
         <v>1011</v>
       </c>
       <c r="B1001" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1001"/>
     </row>
@@ -18841,7 +19372,7 @@
         <v>1013</v>
       </c>
       <c r="B1003" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1003"/>
     </row>
@@ -18850,7 +19381,7 @@
         <v>1014</v>
       </c>
       <c r="B1004" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1004"/>
     </row>
@@ -18859,7 +19390,7 @@
         <v>1015</v>
       </c>
       <c r="B1005" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1005"/>
     </row>
@@ -18886,7 +19417,7 @@
         <v>1018</v>
       </c>
       <c r="B1008" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C1008"/>
     </row>
@@ -19093,7 +19624,7 @@
         <v>1041</v>
       </c>
       <c r="B1031" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C1031"/>
     </row>
@@ -19129,7 +19660,7 @@
         <v>1045</v>
       </c>
       <c r="B1035" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C1035"/>
     </row>
@@ -19138,7 +19669,7 @@
         <v>1046</v>
       </c>
       <c r="B1036" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C1036"/>
     </row>
@@ -19147,7 +19678,7 @@
         <v>1047</v>
       </c>
       <c r="B1037" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C1037"/>
     </row>
@@ -19165,7 +19696,7 @@
         <v>1049</v>
       </c>
       <c r="B1039" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C1039"/>
     </row>
@@ -19669,7 +20200,7 @@
         <v>1105</v>
       </c>
       <c r="B1095" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1095"/>
     </row>
@@ -19678,7 +20209,7 @@
         <v>1106</v>
       </c>
       <c r="B1096" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C1096"/>
     </row>
@@ -19687,7 +20218,7 @@
         <v>1107</v>
       </c>
       <c r="B1097" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1097"/>
     </row>
@@ -19696,7 +20227,7 @@
         <v>1108</v>
       </c>
       <c r="B1098" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1098"/>
     </row>
@@ -19705,7 +20236,7 @@
         <v>1109</v>
       </c>
       <c r="B1099" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1099"/>
     </row>
@@ -19714,7 +20245,7 @@
         <v>1110</v>
       </c>
       <c r="B1100" t="s">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="C1100"/>
     </row>
@@ -19723,7 +20254,7 @@
         <v>1111</v>
       </c>
       <c r="B1101" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1101"/>
     </row>
@@ -20785,7 +21316,7 @@
         <v>1229</v>
       </c>
       <c r="B1219" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1219"/>
     </row>
@@ -20794,7 +21325,7 @@
         <v>1230</v>
       </c>
       <c r="B1220" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C1220"/>
     </row>
@@ -20803,7 +21334,7 @@
         <v>1231</v>
       </c>
       <c r="B1221" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C1221"/>
     </row>
@@ -20812,7 +21343,7 @@
         <v>1232</v>
       </c>
       <c r="B1222" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1222"/>
     </row>
@@ -20821,7 +21352,7 @@
         <v>1233</v>
       </c>
       <c r="B1223" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1223"/>
     </row>
@@ -20830,7 +21361,7 @@
         <v>1234</v>
       </c>
       <c r="B1224" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1224"/>
     </row>
@@ -20848,7 +21379,7 @@
         <v>1236</v>
       </c>
       <c r="B1226" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1226"/>
     </row>
@@ -20875,7 +21406,7 @@
         <v>1239</v>
       </c>
       <c r="B1229" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1229"/>
     </row>
@@ -20884,7 +21415,7 @@
         <v>1240</v>
       </c>
       <c r="B1230" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1230"/>
     </row>
@@ -20893,7 +21424,7 @@
         <v>1241</v>
       </c>
       <c r="B1231" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1231"/>
     </row>
@@ -23314,7 +23845,7 @@
         <v>1510</v>
       </c>
       <c r="B1500" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C1500"/>
     </row>
@@ -23782,7 +24313,7 @@
         <v>1562</v>
       </c>
       <c r="B1552" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C1552"/>
     </row>
@@ -23809,7 +24340,7 @@
         <v>1565</v>
       </c>
       <c r="B1555" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C1555"/>
     </row>
@@ -23854,7 +24385,7 @@
         <v>1570</v>
       </c>
       <c r="B1560" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C1560"/>
     </row>
@@ -23890,7 +24421,7 @@
         <v>1574</v>
       </c>
       <c r="B1564" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C1564"/>
     </row>
@@ -23899,7 +24430,7 @@
         <v>1575</v>
       </c>
       <c r="B1565" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C1565"/>
     </row>
@@ -23908,7 +24439,7 @@
         <v>1576</v>
       </c>
       <c r="B1566" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C1566"/>
     </row>
@@ -24322,7 +24853,7 @@
         <v>1622</v>
       </c>
       <c r="B1612" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1612"/>
     </row>
@@ -24340,7 +24871,7 @@
         <v>1624</v>
       </c>
       <c r="B1614" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C1614"/>
     </row>
@@ -24358,7 +24889,7 @@
         <v>1626</v>
       </c>
       <c r="B1616" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1616"/>
     </row>
@@ -24367,7 +24898,7 @@
         <v>1627</v>
       </c>
       <c r="B1617" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C1617"/>
     </row>
@@ -24376,7 +24907,7 @@
         <v>1628</v>
       </c>
       <c r="B1618" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C1618"/>
     </row>
@@ -24385,7 +24916,7 @@
         <v>1629</v>
       </c>
       <c r="B1619" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C1619"/>
     </row>
@@ -24403,7 +24934,7 @@
         <v>1631</v>
       </c>
       <c r="B1621" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1621"/>
     </row>
@@ -24412,7 +24943,7 @@
         <v>1632</v>
       </c>
       <c r="B1622" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1622"/>
     </row>
@@ -24439,7 +24970,7 @@
         <v>1635</v>
       </c>
       <c r="B1625" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C1625"/>
     </row>
@@ -24448,7 +24979,7 @@
         <v>1636</v>
       </c>
       <c r="B1626" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C1626"/>
     </row>
@@ -24466,7 +24997,7 @@
         <v>1638</v>
       </c>
       <c r="B1628" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C1628"/>
     </row>
@@ -24493,7 +25024,7 @@
         <v>1641</v>
       </c>
       <c r="B1631" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1631"/>
     </row>
@@ -26041,7 +26572,7 @@
         <v>1813</v>
       </c>
       <c r="B1803" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C1803"/>
     </row>
@@ -26050,7 +26581,7 @@
         <v>1814</v>
       </c>
       <c r="B1804" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C1804"/>
     </row>
@@ -26068,7 +26599,7 @@
         <v>1816</v>
       </c>
       <c r="B1806" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C1806"/>
     </row>
@@ -26077,7 +26608,7 @@
         <v>1817</v>
       </c>
       <c r="B1807" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C1807"/>
     </row>
@@ -26095,7 +26626,7 @@
         <v>1819</v>
       </c>
       <c r="B1809" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C1809"/>
     </row>
@@ -26113,7 +26644,7 @@
         <v>1821</v>
       </c>
       <c r="B1811" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C1811"/>
     </row>
@@ -26122,7 +26653,7 @@
         <v>1822</v>
       </c>
       <c r="B1812" t="s">
-        <v>711</v>
+        <v>262</v>
       </c>
       <c r="C1812"/>
     </row>
@@ -26140,7 +26671,7 @@
         <v>1824</v>
       </c>
       <c r="B1814" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C1814"/>
     </row>
@@ -26482,7 +27013,7 @@
         <v>1862</v>
       </c>
       <c r="B1852" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C1852"/>
     </row>
@@ -28606,7 +29137,7 @@
         <v>2098</v>
       </c>
       <c r="B2088" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C2088"/>
     </row>
@@ -28660,7 +29191,7 @@
         <v>2104</v>
       </c>
       <c r="B2094" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C2094"/>
     </row>
@@ -28741,7 +29272,7 @@
         <v>2113</v>
       </c>
       <c r="B2103" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C2103"/>
     </row>
@@ -28768,7 +29299,7 @@
         <v>2116</v>
       </c>
       <c r="B2106" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C2106"/>
     </row>
@@ -28777,7 +29308,7 @@
         <v>2117</v>
       </c>
       <c r="B2107" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C2107"/>
     </row>
@@ -28849,7 +29380,7 @@
         <v>2125</v>
       </c>
       <c r="B2115" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C2115"/>
     </row>
@@ -28858,7 +29389,7 @@
         <v>2126</v>
       </c>
       <c r="B2116" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C2116"/>
     </row>
@@ -28912,7 +29443,7 @@
         <v>2132</v>
       </c>
       <c r="B2122" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C2122"/>
     </row>
@@ -28921,7 +29452,7 @@
         <v>2133</v>
       </c>
       <c r="B2123" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C2123"/>
     </row>
@@ -28948,7 +29479,7 @@
         <v>2136</v>
       </c>
       <c r="B2126" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C2126"/>
     </row>
@@ -29074,7 +29605,7 @@
         <v>2150</v>
       </c>
       <c r="B2140" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2140"/>
     </row>
@@ -29092,7 +29623,7 @@
         <v>2152</v>
       </c>
       <c r="B2142" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2142"/>
     </row>
@@ -29101,7 +29632,7 @@
         <v>2153</v>
       </c>
       <c r="B2143" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2143"/>
     </row>
@@ -29200,7 +29731,7 @@
         <v>2164</v>
       </c>
       <c r="B2154" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2154"/>
     </row>
@@ -29209,7 +29740,7 @@
         <v>2165</v>
       </c>
       <c r="B2155" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2155"/>
     </row>
@@ -29218,7 +29749,7 @@
         <v>2166</v>
       </c>
       <c r="B2156" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2156"/>
     </row>
@@ -29227,7 +29758,7 @@
         <v>2167</v>
       </c>
       <c r="B2157" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2157"/>
     </row>
@@ -29236,7 +29767,7 @@
         <v>2168</v>
       </c>
       <c r="B2158" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2158"/>
     </row>
@@ -30181,7 +30712,7 @@
         <v>2273</v>
       </c>
       <c r="B2263" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2263"/>
     </row>
@@ -30190,7 +30721,7 @@
         <v>2274</v>
       </c>
       <c r="B2264" t="s">
-        <v>711</v>
+        <v>262</v>
       </c>
       <c r="C2264"/>
     </row>
@@ -30199,7 +30730,7 @@
         <v>2275</v>
       </c>
       <c r="B2265" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2265"/>
     </row>
@@ -30217,7 +30748,7 @@
         <v>2277</v>
       </c>
       <c r="B2267" t="s">
-        <v>711</v>
+        <v>262</v>
       </c>
       <c r="C2267"/>
     </row>
@@ -30226,7 +30757,7 @@
         <v>2278</v>
       </c>
       <c r="B2268" t="s">
-        <v>711</v>
+        <v>262</v>
       </c>
       <c r="C2268"/>
     </row>
@@ -30235,7 +30766,7 @@
         <v>2279</v>
       </c>
       <c r="B2269" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2269"/>
     </row>
@@ -30253,7 +30784,7 @@
         <v>2281</v>
       </c>
       <c r="B2271" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2271"/>
     </row>
@@ -30280,7 +30811,7 @@
         <v>2284</v>
       </c>
       <c r="B2274" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2274"/>
     </row>
@@ -30316,7 +30847,7 @@
         <v>2288</v>
       </c>
       <c r="B2278" t="s">
-        <v>711</v>
+        <v>262</v>
       </c>
       <c r="C2278"/>
     </row>
@@ -30334,7 +30865,7 @@
         <v>2290</v>
       </c>
       <c r="B2280" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2280"/>
     </row>
@@ -30388,7 +30919,7 @@
         <v>2296</v>
       </c>
       <c r="B2286" t="s">
-        <v>711</v>
+        <v>262</v>
       </c>
       <c r="C2286"/>
     </row>
@@ -30397,7 +30928,7 @@
         <v>2297</v>
       </c>
       <c r="B2287" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2287"/>
     </row>
@@ -30424,7 +30955,7 @@
         <v>2300</v>
       </c>
       <c r="B2290" t="s">
-        <v>711</v>
+        <v>262</v>
       </c>
       <c r="C2290"/>
     </row>
@@ -30460,7 +30991,7 @@
         <v>2304</v>
       </c>
       <c r="B2294" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C2294"/>
     </row>
@@ -30568,7 +31099,7 @@
         <v>2316</v>
       </c>
       <c r="B2306" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C2306"/>
     </row>
@@ -30784,7 +31315,7 @@
         <v>2340</v>
       </c>
       <c r="B2330" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2330"/>
     </row>
@@ -30793,7 +31324,7 @@
         <v>2341</v>
       </c>
       <c r="B2331" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2331"/>
     </row>
@@ -30802,7 +31333,7 @@
         <v>2342</v>
       </c>
       <c r="B2332" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2332"/>
     </row>
@@ -30811,7 +31342,7 @@
         <v>2343</v>
       </c>
       <c r="B2333" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2333"/>
     </row>
@@ -30820,7 +31351,7 @@
         <v>2344</v>
       </c>
       <c r="B2334" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2334"/>
     </row>
@@ -30883,7 +31414,7 @@
         <v>2351</v>
       </c>
       <c r="B2341" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2341"/>
     </row>
@@ -30919,7 +31450,7 @@
         <v>2355</v>
       </c>
       <c r="B2345" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C2345"/>
     </row>
@@ -30946,7 +31477,7 @@
         <v>2358</v>
       </c>
       <c r="B2348" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C2348"/>
     </row>
@@ -31909,7 +32440,7 @@
         <v>2465</v>
       </c>
       <c r="B2455" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2455"/>
     </row>
@@ -31918,7 +32449,7 @@
         <v>2466</v>
       </c>
       <c r="B2456" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2456"/>
     </row>
@@ -31936,7 +32467,7 @@
         <v>2468</v>
       </c>
       <c r="B2458" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2458"/>
     </row>
@@ -31981,7 +32512,7 @@
         <v>2473</v>
       </c>
       <c r="B2463" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2463"/>
     </row>
@@ -31999,7 +32530,7 @@
         <v>2475</v>
       </c>
       <c r="B2465" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2465"/>
     </row>
@@ -32008,7 +32539,7 @@
         <v>2476</v>
       </c>
       <c r="B2466" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2466"/>
     </row>
@@ -32017,7 +32548,7 @@
         <v>2477</v>
       </c>
       <c r="B2467" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2467"/>
     </row>
@@ -32026,7 +32557,7 @@
         <v>2478</v>
       </c>
       <c r="B2468" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2468"/>
     </row>
@@ -32035,7 +32566,7 @@
         <v>2479</v>
       </c>
       <c r="B2469" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2469"/>
     </row>
@@ -32044,7 +32575,7 @@
         <v>2480</v>
       </c>
       <c r="B2470" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2470"/>
     </row>
@@ -32053,7 +32584,7 @@
         <v>2481</v>
       </c>
       <c r="B2471" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2471"/>
     </row>
@@ -32089,7 +32620,7 @@
         <v>2485</v>
       </c>
       <c r="B2475" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2475"/>
     </row>
@@ -32098,7 +32629,7 @@
         <v>2486</v>
       </c>
       <c r="B2476" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2476"/>
     </row>
@@ -32107,7 +32638,7 @@
         <v>2487</v>
       </c>
       <c r="B2477" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2477"/>
     </row>
@@ -32116,7 +32647,7 @@
         <v>2488</v>
       </c>
       <c r="B2478" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2478"/>
     </row>
@@ -32125,7 +32656,7 @@
         <v>2489</v>
       </c>
       <c r="B2479" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2479"/>
     </row>
@@ -32134,7 +32665,7 @@
         <v>2490</v>
       </c>
       <c r="B2480" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2480"/>
     </row>
@@ -32143,7 +32674,7 @@
         <v>2491</v>
       </c>
       <c r="B2481" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2481"/>
     </row>
@@ -32152,7 +32683,7 @@
         <v>2492</v>
       </c>
       <c r="B2482" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2482"/>
     </row>
@@ -32890,7 +33421,7 @@
         <v>2574</v>
       </c>
       <c r="B2564" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C2564"/>
     </row>
@@ -32908,7 +33439,7 @@
         <v>2576</v>
       </c>
       <c r="B2566" t="s">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="C2566"/>
     </row>
@@ -32926,7 +33457,7 @@
         <v>2578</v>
       </c>
       <c r="B2568" t="s">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="C2568"/>
     </row>
@@ -33925,7 +34456,7 @@
         <v>2689</v>
       </c>
       <c r="B2679" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C2679"/>
     </row>
@@ -33934,7 +34465,7 @@
         <v>2690</v>
       </c>
       <c r="B2680" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2680"/>
     </row>
@@ -33943,7 +34474,7 @@
         <v>2691</v>
       </c>
       <c r="B2681" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2681"/>
     </row>
@@ -33961,7 +34492,7 @@
         <v>2693</v>
       </c>
       <c r="B2683" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2683"/>
     </row>
@@ -34042,7 +34573,7 @@
         <v>2702</v>
       </c>
       <c r="B2692" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2692"/>
     </row>
@@ -34114,7 +34645,7 @@
         <v>2710</v>
       </c>
       <c r="B2700" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2700"/>
     </row>
@@ -34123,7 +34654,7 @@
         <v>2711</v>
       </c>
       <c r="B2701" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2701"/>
     </row>
@@ -34132,7 +34663,7 @@
         <v>2712</v>
       </c>
       <c r="B2702" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2702"/>
     </row>
@@ -34141,7 +34672,7 @@
         <v>2713</v>
       </c>
       <c r="B2703" t="s">
-        <v>711</v>
+        <v>262</v>
       </c>
       <c r="C2703"/>
     </row>
@@ -34150,7 +34681,7 @@
         <v>2714</v>
       </c>
       <c r="B2704" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2704"/>
     </row>
@@ -34159,7 +34690,7 @@
         <v>2715</v>
       </c>
       <c r="B2705" t="s">
-        <v>711</v>
+        <v>262</v>
       </c>
       <c r="C2705"/>
     </row>
@@ -34177,7 +34708,7 @@
         <v>2717</v>
       </c>
       <c r="B2707" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2707"/>
     </row>
@@ -34186,7 +34717,7 @@
         <v>2718</v>
       </c>
       <c r="B2708" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2708"/>
     </row>
@@ -34195,7 +34726,7 @@
         <v>2719</v>
       </c>
       <c r="B2709" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2709"/>
     </row>
@@ -34204,7 +34735,7 @@
         <v>2720</v>
       </c>
       <c r="B2710" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2710"/>
     </row>
@@ -34231,7 +34762,7 @@
         <v>2723</v>
       </c>
       <c r="B2713" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2713"/>
     </row>
@@ -34240,7 +34771,7 @@
         <v>2724</v>
       </c>
       <c r="B2714" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2714"/>
     </row>
@@ -34249,7 +34780,7 @@
         <v>2725</v>
       </c>
       <c r="B2715" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2715"/>
     </row>
@@ -34258,7 +34789,7 @@
         <v>2726</v>
       </c>
       <c r="B2716" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2716"/>
     </row>
@@ -34267,7 +34798,7 @@
         <v>2727</v>
       </c>
       <c r="B2717" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2717"/>
     </row>
@@ -34276,7 +34807,7 @@
         <v>2728</v>
       </c>
       <c r="B2718" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2718"/>
     </row>
@@ -34285,7 +34816,7 @@
         <v>2729</v>
       </c>
       <c r="B2719" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2719"/>
     </row>
@@ -34294,7 +34825,7 @@
         <v>2730</v>
       </c>
       <c r="B2720" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2720"/>
     </row>
@@ -34303,7 +34834,7 @@
         <v>2731</v>
       </c>
       <c r="B2721" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2721"/>
     </row>
@@ -34339,7 +34870,7 @@
         <v>2735</v>
       </c>
       <c r="B2725" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2725"/>
     </row>
@@ -34357,7 +34888,7 @@
         <v>2737</v>
       </c>
       <c r="B2727" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2727"/>
     </row>
@@ -34366,7 +34897,7 @@
         <v>2738</v>
       </c>
       <c r="B2728" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C2728"/>
     </row>
@@ -34537,7 +35068,7 @@
         <v>2757</v>
       </c>
       <c r="B2747" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2747"/>
     </row>
@@ -34546,7 +35077,7 @@
         <v>2758</v>
       </c>
       <c r="B2748" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2748"/>
     </row>
@@ -34555,7 +35086,7 @@
         <v>2759</v>
       </c>
       <c r="B2749" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2749"/>
     </row>
@@ -34564,7 +35095,7 @@
         <v>2760</v>
       </c>
       <c r="B2750" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2750"/>
     </row>
@@ -34573,7 +35104,7 @@
         <v>2761</v>
       </c>
       <c r="B2751" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2751"/>
     </row>
@@ -34582,7 +35113,7 @@
         <v>2762</v>
       </c>
       <c r="B2752" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2752"/>
     </row>
@@ -34600,7 +35131,7 @@
         <v>2764</v>
       </c>
       <c r="B2754" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2754"/>
     </row>
@@ -34681,7 +35212,7 @@
         <v>2773</v>
       </c>
       <c r="B2763" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2763"/>
     </row>
@@ -34690,7 +35221,7 @@
         <v>2774</v>
       </c>
       <c r="B2764" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2764"/>
     </row>
@@ -34708,7 +35239,7 @@
         <v>2776</v>
       </c>
       <c r="B2766" t="s">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="C2766"/>
     </row>
@@ -34744,7 +35275,7 @@
         <v>2780</v>
       </c>
       <c r="B2770" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2770"/>
     </row>
@@ -34849,7 +35380,7 @@
     </row>
     <row r="2782">
       <c r="A2782" t="s">
-        <v>2880</v>
+        <v>2865</v>
       </c>
       <c r="B2782" t="s">
         <v>4</v>
@@ -34858,7 +35389,7 @@
     </row>
     <row r="2783">
       <c r="A2783" t="s">
-        <v>2881</v>
+        <v>2866</v>
       </c>
       <c r="B2783" t="s">
         <v>4</v>
@@ -34867,7 +35398,7 @@
     </row>
     <row r="2784">
       <c r="A2784" t="s">
-        <v>2882</v>
+        <v>2867</v>
       </c>
       <c r="B2784" t="s">
         <v>4</v>
@@ -34876,7 +35407,7 @@
     </row>
     <row r="2785">
       <c r="A2785" t="s">
-        <v>2883</v>
+        <v>2868</v>
       </c>
       <c r="B2785" t="s">
         <v>4</v>
@@ -34885,7 +35416,7 @@
     </row>
     <row r="2786">
       <c r="A2786" t="s">
-        <v>2884</v>
+        <v>2869</v>
       </c>
       <c r="B2786" t="s">
         <v>4</v>
@@ -34894,7 +35425,7 @@
     </row>
     <row r="2787">
       <c r="A2787" t="s">
-        <v>2885</v>
+        <v>2870</v>
       </c>
       <c r="B2787" t="s">
         <v>4</v>
@@ -34903,7 +35434,7 @@
     </row>
     <row r="2788">
       <c r="A2788" t="s">
-        <v>2886</v>
+        <v>2871</v>
       </c>
       <c r="B2788" t="s">
         <v>4</v>
@@ -34912,7 +35443,7 @@
     </row>
     <row r="2789">
       <c r="A2789" t="s">
-        <v>2887</v>
+        <v>2872</v>
       </c>
       <c r="B2789" t="s">
         <v>4</v>
@@ -34921,7 +35452,7 @@
     </row>
     <row r="2790">
       <c r="A2790" t="s">
-        <v>2888</v>
+        <v>2873</v>
       </c>
       <c r="B2790" t="s">
         <v>4</v>
@@ -34930,7 +35461,7 @@
     </row>
     <row r="2791">
       <c r="A2791" t="s">
-        <v>2889</v>
+        <v>2874</v>
       </c>
       <c r="B2791" t="s">
         <v>4</v>
@@ -34939,7 +35470,7 @@
     </row>
     <row r="2792">
       <c r="A2792" t="s">
-        <v>2890</v>
+        <v>2875</v>
       </c>
       <c r="B2792" t="s">
         <v>4</v>
@@ -34948,7 +35479,7 @@
     </row>
     <row r="2793">
       <c r="A2793" t="s">
-        <v>2891</v>
+        <v>2876</v>
       </c>
       <c r="B2793" t="s">
         <v>4</v>
@@ -34957,7 +35488,7 @@
     </row>
     <row r="2794">
       <c r="A2794" t="s">
-        <v>2892</v>
+        <v>2877</v>
       </c>
       <c r="B2794" t="s">
         <v>4</v>
@@ -34966,7 +35497,7 @@
     </row>
     <row r="2795">
       <c r="A2795" t="s">
-        <v>2893</v>
+        <v>2878</v>
       </c>
       <c r="B2795" t="s">
         <v>4</v>
@@ -34975,7 +35506,7 @@
     </row>
     <row r="2796">
       <c r="A2796" t="s">
-        <v>2894</v>
+        <v>2879</v>
       </c>
       <c r="B2796" t="s">
         <v>4</v>
@@ -34984,7 +35515,7 @@
     </row>
     <row r="2797">
       <c r="A2797" t="s">
-        <v>2895</v>
+        <v>2880</v>
       </c>
       <c r="B2797" t="s">
         <v>4</v>
@@ -34993,7 +35524,7 @@
     </row>
     <row r="2798">
       <c r="A2798" t="s">
-        <v>2896</v>
+        <v>2881</v>
       </c>
       <c r="B2798" t="s">
         <v>4</v>
@@ -35002,7 +35533,7 @@
     </row>
     <row r="2799">
       <c r="A2799" t="s">
-        <v>2897</v>
+        <v>2882</v>
       </c>
       <c r="B2799" t="s">
         <v>4</v>
@@ -35011,7 +35542,7 @@
     </row>
     <row r="2800">
       <c r="A2800" t="s">
-        <v>2898</v>
+        <v>2883</v>
       </c>
       <c r="B2800" t="s">
         <v>4</v>
@@ -35020,7 +35551,7 @@
     </row>
     <row r="2801">
       <c r="A2801" t="s">
-        <v>2899</v>
+        <v>2884</v>
       </c>
       <c r="B2801" t="s">
         <v>4</v>
@@ -35029,7 +35560,7 @@
     </row>
     <row r="2802">
       <c r="A2802" t="s">
-        <v>2900</v>
+        <v>2885</v>
       </c>
       <c r="B2802" t="s">
         <v>4</v>
@@ -35038,7 +35569,7 @@
     </row>
     <row r="2803">
       <c r="A2803" t="s">
-        <v>2901</v>
+        <v>2886</v>
       </c>
       <c r="B2803" t="s">
         <v>4</v>
@@ -35047,7 +35578,7 @@
     </row>
     <row r="2804">
       <c r="A2804" t="s">
-        <v>2902</v>
+        <v>2887</v>
       </c>
       <c r="B2804" t="s">
         <v>4</v>
@@ -35056,7 +35587,7 @@
     </row>
     <row r="2805">
       <c r="A2805" t="s">
-        <v>2903</v>
+        <v>2888</v>
       </c>
       <c r="B2805" t="s">
         <v>4</v>
@@ -35065,7 +35596,7 @@
     </row>
     <row r="2806">
       <c r="A2806" t="s">
-        <v>2904</v>
+        <v>2889</v>
       </c>
       <c r="B2806" t="s">
         <v>4</v>
@@ -35074,7 +35605,7 @@
     </row>
     <row r="2807">
       <c r="A2807" t="s">
-        <v>2905</v>
+        <v>2890</v>
       </c>
       <c r="B2807" t="s">
         <v>4</v>
@@ -35083,7 +35614,7 @@
     </row>
     <row r="2808">
       <c r="A2808" t="s">
-        <v>2906</v>
+        <v>2891</v>
       </c>
       <c r="B2808" t="s">
         <v>4</v>
@@ -35092,7 +35623,7 @@
     </row>
     <row r="2809">
       <c r="A2809" t="s">
-        <v>2907</v>
+        <v>2892</v>
       </c>
       <c r="B2809" t="s">
         <v>4</v>
@@ -35101,7 +35632,7 @@
     </row>
     <row r="2810">
       <c r="A2810" t="s">
-        <v>2908</v>
+        <v>2893</v>
       </c>
       <c r="B2810" t="s">
         <v>4</v>
@@ -35110,7 +35641,7 @@
     </row>
     <row r="2811">
       <c r="A2811" t="s">
-        <v>2909</v>
+        <v>2894</v>
       </c>
       <c r="B2811" t="s">
         <v>4</v>
@@ -35119,7 +35650,7 @@
     </row>
     <row r="2812">
       <c r="A2812" t="s">
-        <v>2910</v>
+        <v>2895</v>
       </c>
       <c r="B2812" t="s">
         <v>4</v>
@@ -35128,7 +35659,7 @@
     </row>
     <row r="2813">
       <c r="A2813" t="s">
-        <v>2911</v>
+        <v>2896</v>
       </c>
       <c r="B2813" t="s">
         <v>4</v>
@@ -35137,7 +35668,7 @@
     </row>
     <row r="2814">
       <c r="A2814" t="s">
-        <v>2912</v>
+        <v>2897</v>
       </c>
       <c r="B2814" t="s">
         <v>4</v>
@@ -35146,7 +35677,7 @@
     </row>
     <row r="2815">
       <c r="A2815" t="s">
-        <v>2913</v>
+        <v>2898</v>
       </c>
       <c r="B2815" t="s">
         <v>4</v>
@@ -35155,7 +35686,7 @@
     </row>
     <row r="2816">
       <c r="A2816" t="s">
-        <v>2914</v>
+        <v>2899</v>
       </c>
       <c r="B2816" t="s">
         <v>4</v>
@@ -35164,7 +35695,7 @@
     </row>
     <row r="2817">
       <c r="A2817" t="s">
-        <v>2915</v>
+        <v>2900</v>
       </c>
       <c r="B2817" t="s">
         <v>4</v>
@@ -35173,7 +35704,7 @@
     </row>
     <row r="2818">
       <c r="A2818" t="s">
-        <v>2916</v>
+        <v>2901</v>
       </c>
       <c r="B2818" t="s">
         <v>4</v>
@@ -35182,7 +35713,7 @@
     </row>
     <row r="2819">
       <c r="A2819" t="s">
-        <v>2917</v>
+        <v>2902</v>
       </c>
       <c r="B2819" t="s">
         <v>4</v>
@@ -35191,7 +35722,7 @@
     </row>
     <row r="2820">
       <c r="A2820" t="s">
-        <v>2918</v>
+        <v>2903</v>
       </c>
       <c r="B2820" t="s">
         <v>4</v>
@@ -35200,7 +35731,7 @@
     </row>
     <row r="2821">
       <c r="A2821" t="s">
-        <v>2919</v>
+        <v>2904</v>
       </c>
       <c r="B2821" t="s">
         <v>4</v>
@@ -35209,7 +35740,7 @@
     </row>
     <row r="2822">
       <c r="A2822" t="s">
-        <v>2920</v>
+        <v>2905</v>
       </c>
       <c r="B2822" t="s">
         <v>4</v>
@@ -35218,7 +35749,7 @@
     </row>
     <row r="2823">
       <c r="A2823" t="s">
-        <v>2921</v>
+        <v>2906</v>
       </c>
       <c r="B2823" t="s">
         <v>4</v>
@@ -35227,7 +35758,7 @@
     </row>
     <row r="2824">
       <c r="A2824" t="s">
-        <v>2922</v>
+        <v>2907</v>
       </c>
       <c r="B2824" t="s">
         <v>4</v>
@@ -35236,7 +35767,7 @@
     </row>
     <row r="2825">
       <c r="A2825" t="s">
-        <v>2923</v>
+        <v>2908</v>
       </c>
       <c r="B2825" t="s">
         <v>4</v>
@@ -35245,7 +35776,7 @@
     </row>
     <row r="2826">
       <c r="A2826" t="s">
-        <v>2924</v>
+        <v>2909</v>
       </c>
       <c r="B2826" t="s">
         <v>4</v>
@@ -35254,7 +35785,7 @@
     </row>
     <row r="2827">
       <c r="A2827" t="s">
-        <v>2925</v>
+        <v>2910</v>
       </c>
       <c r="B2827" t="s">
         <v>4</v>
@@ -35263,7 +35794,7 @@
     </row>
     <row r="2828">
       <c r="A2828" t="s">
-        <v>2926</v>
+        <v>2911</v>
       </c>
       <c r="B2828" t="s">
         <v>4</v>
@@ -35272,7 +35803,7 @@
     </row>
     <row r="2829">
       <c r="A2829" t="s">
-        <v>2927</v>
+        <v>2912</v>
       </c>
       <c r="B2829" t="s">
         <v>4</v>
@@ -35281,7 +35812,7 @@
     </row>
     <row r="2830">
       <c r="A2830" t="s">
-        <v>2928</v>
+        <v>2913</v>
       </c>
       <c r="B2830" t="s">
         <v>4</v>
@@ -35290,7 +35821,7 @@
     </row>
     <row r="2831">
       <c r="A2831" t="s">
-        <v>2929</v>
+        <v>2914</v>
       </c>
       <c r="B2831" t="s">
         <v>4</v>
@@ -35299,7 +35830,7 @@
     </row>
     <row r="2832">
       <c r="A2832" t="s">
-        <v>2930</v>
+        <v>2915</v>
       </c>
       <c r="B2832" t="s">
         <v>4</v>
@@ -35308,7 +35839,7 @@
     </row>
     <row r="2833">
       <c r="A2833" t="s">
-        <v>2931</v>
+        <v>2916</v>
       </c>
       <c r="B2833" t="s">
         <v>4</v>
@@ -35317,7 +35848,7 @@
     </row>
     <row r="2834">
       <c r="A2834" t="s">
-        <v>2932</v>
+        <v>2917</v>
       </c>
       <c r="B2834" t="s">
         <v>4</v>
@@ -35326,7 +35857,7 @@
     </row>
     <row r="2835">
       <c r="A2835" t="s">
-        <v>2933</v>
+        <v>2918</v>
       </c>
       <c r="B2835" t="s">
         <v>4</v>
@@ -35335,7 +35866,7 @@
     </row>
     <row r="2836">
       <c r="A2836" t="s">
-        <v>2934</v>
+        <v>2919</v>
       </c>
       <c r="B2836" t="s">
         <v>4</v>
@@ -35344,7 +35875,7 @@
     </row>
     <row r="2837">
       <c r="A2837" t="s">
-        <v>2935</v>
+        <v>2920</v>
       </c>
       <c r="B2837" t="s">
         <v>4</v>
@@ -35353,7 +35884,7 @@
     </row>
     <row r="2838">
       <c r="A2838" t="s">
-        <v>2936</v>
+        <v>2921</v>
       </c>
       <c r="B2838" t="s">
         <v>4</v>
@@ -35362,7 +35893,7 @@
     </row>
     <row r="2839">
       <c r="A2839" t="s">
-        <v>2937</v>
+        <v>2922</v>
       </c>
       <c r="B2839" t="s">
         <v>4</v>
@@ -35371,7 +35902,7 @@
     </row>
     <row r="2840">
       <c r="A2840" t="s">
-        <v>2938</v>
+        <v>2923</v>
       </c>
       <c r="B2840" t="s">
         <v>4</v>
@@ -35380,7 +35911,7 @@
     </row>
     <row r="2841">
       <c r="A2841" t="s">
-        <v>2939</v>
+        <v>2924</v>
       </c>
       <c r="B2841" t="s">
         <v>4</v>
@@ -35389,7 +35920,7 @@
     </row>
     <row r="2842">
       <c r="A2842" t="s">
-        <v>2940</v>
+        <v>2925</v>
       </c>
       <c r="B2842" t="s">
         <v>4</v>
@@ -35398,7 +35929,7 @@
     </row>
     <row r="2843">
       <c r="A2843" t="s">
-        <v>2941</v>
+        <v>2926</v>
       </c>
       <c r="B2843" t="s">
         <v>4</v>
@@ -35407,7 +35938,7 @@
     </row>
     <row r="2844">
       <c r="A2844" t="s">
-        <v>2942</v>
+        <v>2927</v>
       </c>
       <c r="B2844" t="s">
         <v>4</v>
@@ -35416,7 +35947,7 @@
     </row>
     <row r="2845">
       <c r="A2845" t="s">
-        <v>2943</v>
+        <v>2928</v>
       </c>
       <c r="B2845" t="s">
         <v>4</v>
@@ -35425,7 +35956,7 @@
     </row>
     <row r="2846">
       <c r="A2846" t="s">
-        <v>2944</v>
+        <v>2929</v>
       </c>
       <c r="B2846" t="s">
         <v>4</v>
@@ -35434,7 +35965,7 @@
     </row>
     <row r="2847">
       <c r="A2847" t="s">
-        <v>2945</v>
+        <v>2930</v>
       </c>
       <c r="B2847" t="s">
         <v>4</v>
@@ -35443,7 +35974,7 @@
     </row>
     <row r="2848">
       <c r="A2848" t="s">
-        <v>2946</v>
+        <v>2931</v>
       </c>
       <c r="B2848" t="s">
         <v>4</v>
@@ -35452,7 +35983,7 @@
     </row>
     <row r="2849">
       <c r="A2849" t="s">
-        <v>2947</v>
+        <v>2932</v>
       </c>
       <c r="B2849" t="s">
         <v>4</v>
@@ -35461,7 +35992,7 @@
     </row>
     <row r="2850">
       <c r="A2850" t="s">
-        <v>2948</v>
+        <v>2933</v>
       </c>
       <c r="B2850" t="s">
         <v>4</v>
@@ -35470,7 +36001,7 @@
     </row>
     <row r="2851">
       <c r="A2851" t="s">
-        <v>2949</v>
+        <v>2934</v>
       </c>
       <c r="B2851" t="s">
         <v>4</v>
@@ -35479,7 +36010,7 @@
     </row>
     <row r="2852">
       <c r="A2852" t="s">
-        <v>2950</v>
+        <v>2935</v>
       </c>
       <c r="B2852" t="s">
         <v>4</v>
@@ -35488,7 +36019,7 @@
     </row>
     <row r="2853">
       <c r="A2853" t="s">
-        <v>2951</v>
+        <v>2936</v>
       </c>
       <c r="B2853" t="s">
         <v>4</v>
@@ -35497,7 +36028,7 @@
     </row>
     <row r="2854">
       <c r="A2854" t="s">
-        <v>2952</v>
+        <v>2937</v>
       </c>
       <c r="B2854" t="s">
         <v>4</v>
@@ -35506,7 +36037,7 @@
     </row>
     <row r="2855">
       <c r="A2855" t="s">
-        <v>2953</v>
+        <v>2938</v>
       </c>
       <c r="B2855" t="s">
         <v>4</v>
@@ -35515,7 +36046,7 @@
     </row>
     <row r="2856">
       <c r="A2856" t="s">
-        <v>2954</v>
+        <v>2939</v>
       </c>
       <c r="B2856" t="s">
         <v>4</v>
@@ -35524,7 +36055,7 @@
     </row>
     <row r="2857">
       <c r="A2857" t="s">
-        <v>2955</v>
+        <v>2940</v>
       </c>
       <c r="B2857" t="s">
         <v>4</v>
@@ -35533,7 +36064,7 @@
     </row>
     <row r="2858">
       <c r="A2858" t="s">
-        <v>2956</v>
+        <v>2941</v>
       </c>
       <c r="B2858" t="s">
         <v>4</v>
@@ -35542,7 +36073,7 @@
     </row>
     <row r="2859">
       <c r="A2859" t="s">
-        <v>2957</v>
+        <v>2942</v>
       </c>
       <c r="B2859" t="s">
         <v>4</v>
@@ -35551,7 +36082,7 @@
     </row>
     <row r="2860">
       <c r="A2860" t="s">
-        <v>2958</v>
+        <v>2943</v>
       </c>
       <c r="B2860" t="s">
         <v>4</v>
@@ -35560,7 +36091,7 @@
     </row>
     <row r="2861">
       <c r="A2861" t="s">
-        <v>2959</v>
+        <v>2944</v>
       </c>
       <c r="B2861" t="s">
         <v>4</v>
@@ -35569,7 +36100,7 @@
     </row>
     <row r="2862">
       <c r="A2862" t="s">
-        <v>2960</v>
+        <v>2945</v>
       </c>
       <c r="B2862" t="s">
         <v>4</v>
@@ -35578,7 +36109,7 @@
     </row>
     <row r="2863">
       <c r="A2863" t="s">
-        <v>2961</v>
+        <v>2946</v>
       </c>
       <c r="B2863" t="s">
         <v>4</v>
@@ -35587,7 +36118,7 @@
     </row>
     <row r="2864">
       <c r="A2864" t="s">
-        <v>2962</v>
+        <v>2947</v>
       </c>
       <c r="B2864" t="s">
         <v>4</v>
@@ -35596,7 +36127,7 @@
     </row>
     <row r="2865">
       <c r="A2865" t="s">
-        <v>2963</v>
+        <v>2948</v>
       </c>
       <c r="B2865" t="s">
         <v>4</v>
@@ -35605,7 +36136,7 @@
     </row>
     <row r="2866">
       <c r="A2866" t="s">
-        <v>2964</v>
+        <v>2949</v>
       </c>
       <c r="B2866" t="s">
         <v>4</v>
@@ -35614,7 +36145,7 @@
     </row>
     <row r="2867">
       <c r="A2867" t="s">
-        <v>2965</v>
+        <v>2950</v>
       </c>
       <c r="B2867" t="s">
         <v>4</v>
@@ -35623,7 +36154,7 @@
     </row>
     <row r="2868">
       <c r="A2868" t="s">
-        <v>2966</v>
+        <v>2951</v>
       </c>
       <c r="B2868" t="s">
         <v>4</v>
@@ -35632,7 +36163,7 @@
     </row>
     <row r="2869">
       <c r="A2869" t="s">
-        <v>2967</v>
+        <v>2952</v>
       </c>
       <c r="B2869" t="s">
         <v>4</v>
@@ -35641,7 +36172,7 @@
     </row>
     <row r="2870">
       <c r="A2870" t="s">
-        <v>2968</v>
+        <v>2953</v>
       </c>
       <c r="B2870" t="s">
         <v>4</v>
@@ -35650,7 +36181,7 @@
     </row>
     <row r="2871">
       <c r="A2871" t="s">
-        <v>2969</v>
+        <v>2954</v>
       </c>
       <c r="B2871" t="s">
         <v>4</v>
@@ -35659,7 +36190,7 @@
     </row>
     <row r="2872">
       <c r="A2872" t="s">
-        <v>2970</v>
+        <v>2955</v>
       </c>
       <c r="B2872" t="s">
         <v>4</v>
@@ -35668,7 +36199,7 @@
     </row>
     <row r="2873">
       <c r="A2873" t="s">
-        <v>2971</v>
+        <v>2956</v>
       </c>
       <c r="B2873" t="s">
         <v>4</v>
@@ -35677,7 +36208,7 @@
     </row>
     <row r="2874">
       <c r="A2874" t="s">
-        <v>2972</v>
+        <v>2957</v>
       </c>
       <c r="B2874" t="s">
         <v>4</v>
@@ -35686,7 +36217,7 @@
     </row>
     <row r="2875">
       <c r="A2875" t="s">
-        <v>2973</v>
+        <v>2958</v>
       </c>
       <c r="B2875" t="s">
         <v>4</v>
@@ -35695,7 +36226,7 @@
     </row>
     <row r="2876">
       <c r="A2876" t="s">
-        <v>2974</v>
+        <v>2959</v>
       </c>
       <c r="B2876" t="s">
         <v>4</v>
@@ -35704,7 +36235,7 @@
     </row>
     <row r="2877">
       <c r="A2877" t="s">
-        <v>2975</v>
+        <v>2960</v>
       </c>
       <c r="B2877" t="s">
         <v>4</v>
@@ -35713,7 +36244,7 @@
     </row>
     <row r="2878">
       <c r="A2878" t="s">
-        <v>2976</v>
+        <v>2961</v>
       </c>
       <c r="B2878" t="s">
         <v>4</v>
@@ -35722,7 +36253,7 @@
     </row>
     <row r="2879">
       <c r="A2879" t="s">
-        <v>2977</v>
+        <v>2962</v>
       </c>
       <c r="B2879" t="s">
         <v>4</v>
@@ -35731,7 +36262,7 @@
     </row>
     <row r="2880">
       <c r="A2880" t="s">
-        <v>2978</v>
+        <v>2963</v>
       </c>
       <c r="B2880" t="s">
         <v>4</v>
@@ -35740,7 +36271,7 @@
     </row>
     <row r="2881">
       <c r="A2881" t="s">
-        <v>2979</v>
+        <v>2964</v>
       </c>
       <c r="B2881" t="s">
         <v>4</v>
@@ -35762,42 +36293,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2792</v>
+        <v>2823</v>
       </c>
       <c r="B1" t="s">
-        <v>2793</v>
+        <v>2824</v>
       </c>
       <c r="C1" t="s">
-        <v>2794</v>
+        <v>2825</v>
       </c>
       <c r="D1" t="s">
-        <v>2795</v>
+        <v>2826</v>
       </c>
       <c r="E1" t="s">
-        <v>2796</v>
+        <v>2827</v>
       </c>
       <c r="F1" t="s">
-        <v>2797</v>
+        <v>2828</v>
       </c>
       <c r="G1" t="s">
-        <v>2798</v>
+        <v>2829</v>
       </c>
       <c r="H1" t="s">
-        <v>2799</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2800</v>
+        <v>2831</v>
       </c>
       <c r="B2" t="n">
         <v>51.418831</v>
       </c>
       <c r="C2" t="s">
-        <v>2801</v>
+        <v>2832</v>
       </c>
       <c r="D2" t="s">
-        <v>2802</v>
+        <v>2833</v>
       </c>
       <c r="E2" t="n">
         <v>51.427532</v>
@@ -35806,24 +36337,24 @@
         <v>-0.124358</v>
       </c>
       <c r="G2" t="s">
-        <v>2803</v>
+        <v>2834</v>
       </c>
       <c r="H2" t="s">
-        <v>2804</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2800</v>
+        <v>2831</v>
       </c>
       <c r="B3" t="n">
         <v>51.418831</v>
       </c>
       <c r="C3" t="s">
-        <v>2801</v>
+        <v>2832</v>
       </c>
       <c r="D3" t="s">
-        <v>2805</v>
+        <v>2836</v>
       </c>
       <c r="E3" t="n">
         <v>51.487698</v>
@@ -35832,24 +36363,24 @@
         <v>-0.268478</v>
       </c>
       <c r="G3" t="s">
-        <v>2806</v>
+        <v>2837</v>
       </c>
       <c r="H3" t="s">
-        <v>2804</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2800</v>
+        <v>2831</v>
       </c>
       <c r="B4" t="n">
         <v>51.418831</v>
       </c>
       <c r="C4" t="s">
-        <v>2801</v>
+        <v>2832</v>
       </c>
       <c r="D4" t="s">
-        <v>2807</v>
+        <v>2838</v>
       </c>
       <c r="E4" t="n">
         <v>51.360867</v>
@@ -35858,24 +36389,24 @@
         <v>-0.193955</v>
       </c>
       <c r="G4" t="s">
-        <v>2808</v>
+        <v>2839</v>
       </c>
       <c r="H4" t="s">
-        <v>2804</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2800</v>
+        <v>2831</v>
       </c>
       <c r="B5" t="n">
         <v>51.418831</v>
       </c>
       <c r="C5" t="s">
-        <v>2801</v>
+        <v>2832</v>
       </c>
       <c r="D5" t="s">
-        <v>2809</v>
+        <v>2840</v>
       </c>
       <c r="E5" t="n">
         <v>51.512696</v>
@@ -35884,24 +36415,24 @@
         <v>-0.00982</v>
       </c>
       <c r="G5" t="s">
-        <v>2810</v>
+        <v>2841</v>
       </c>
       <c r="H5" t="s">
-        <v>2811</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2812</v>
+        <v>2843</v>
       </c>
       <c r="B6" t="n">
         <v>51.561874</v>
       </c>
       <c r="C6" t="s">
-        <v>2813</v>
+        <v>2844</v>
       </c>
       <c r="D6" t="s">
-        <v>2814</v>
+        <v>2845</v>
       </c>
       <c r="E6" t="n">
         <v>51.532731</v>
@@ -35910,24 +36441,24 @@
         <v>-0.106145</v>
       </c>
       <c r="G6" t="s">
-        <v>2815</v>
+        <v>2846</v>
       </c>
       <c r="H6" t="s">
-        <v>2804</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2812</v>
+        <v>2843</v>
       </c>
       <c r="B7" t="n">
         <v>51.561874</v>
       </c>
       <c r="C7" t="s">
-        <v>2813</v>
+        <v>2844</v>
       </c>
       <c r="D7" t="s">
-        <v>2816</v>
+        <v>2847</v>
       </c>
       <c r="E7" t="n">
         <v>51.524898</v>
@@ -35936,24 +36467,24 @@
         <v>-0.340999</v>
       </c>
       <c r="G7" t="s">
-        <v>2817</v>
+        <v>2848</v>
       </c>
       <c r="H7" t="s">
-        <v>2804</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2812</v>
+        <v>2843</v>
       </c>
       <c r="B8" t="n">
         <v>51.561874</v>
       </c>
       <c r="C8" t="s">
-        <v>2813</v>
+        <v>2844</v>
       </c>
       <c r="D8" t="s">
-        <v>2818</v>
+        <v>2849</v>
       </c>
       <c r="E8" t="n">
         <v>52.420504</v>
@@ -35962,24 +36493,24 @@
         <v>-1.518076</v>
       </c>
       <c r="G8" t="s">
-        <v>2819</v>
+        <v>2850</v>
       </c>
       <c r="H8" t="s">
-        <v>2820</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2821</v>
+        <v>2852</v>
       </c>
       <c r="B9" t="n">
         <v>51.511631</v>
       </c>
       <c r="C9" t="s">
-        <v>2822</v>
+        <v>2853</v>
       </c>
       <c r="D9" t="s">
-        <v>2823</v>
+        <v>2854</v>
       </c>
       <c r="E9" t="n">
         <v>51.51401</v>
@@ -35988,24 +36519,24 @@
         <v>-0.09817</v>
       </c>
       <c r="G9" t="s">
-        <v>2824</v>
+        <v>2855</v>
       </c>
       <c r="H9" t="s">
-        <v>2804</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2823</v>
+        <v>2854</v>
       </c>
       <c r="B10" t="n">
         <v>51.51401</v>
       </c>
       <c r="C10" t="s">
-        <v>2825</v>
+        <v>2856</v>
       </c>
       <c r="D10" t="s">
-        <v>2814</v>
+        <v>2845</v>
       </c>
       <c r="E10" t="n">
         <v>51.532731</v>
@@ -36014,10 +36545,62 @@
         <v>-0.106145</v>
       </c>
       <c r="G10" t="s">
-        <v>2826</v>
+        <v>2857</v>
       </c>
       <c r="H10" t="s">
-        <v>2804</v>
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B11" t="n">
+        <v>51.549736</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2859</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2845</v>
+      </c>
+      <c r="E11" t="n">
+        <v>51.532731</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.106145</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B12" t="n">
+        <v>51.494519</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2863</v>
+      </c>
+      <c r="E12" t="n">
+        <v>51.481799</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.026259</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2864</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2835</v>
       </c>
     </row>
   </sheetData>
@@ -36038,67 +36621,67 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2827</v>
+        <v>2792</v>
       </c>
       <c r="C1" t="s">
-        <v>2828</v>
+        <v>2793</v>
       </c>
       <c r="D1" t="s">
-        <v>2829</v>
+        <v>2794</v>
       </c>
       <c r="E1" t="s">
-        <v>2830</v>
+        <v>2795</v>
       </c>
       <c r="F1" t="s">
-        <v>2831</v>
+        <v>2796</v>
       </c>
       <c r="G1" t="s">
-        <v>2832</v>
+        <v>2797</v>
       </c>
       <c r="H1" t="s">
-        <v>2833</v>
+        <v>2798</v>
       </c>
       <c r="I1" t="s">
-        <v>2834</v>
+        <v>2799</v>
       </c>
       <c r="J1" t="s">
-        <v>2835</v>
+        <v>2800</v>
       </c>
       <c r="K1" t="s">
-        <v>2836</v>
+        <v>2801</v>
       </c>
       <c r="L1" t="s">
-        <v>2837</v>
+        <v>2802</v>
       </c>
       <c r="M1" t="s">
-        <v>2838</v>
+        <v>2803</v>
       </c>
       <c r="N1" t="s">
-        <v>2839</v>
+        <v>2804</v>
       </c>
       <c r="O1" t="s">
-        <v>2840</v>
+        <v>2805</v>
       </c>
       <c r="P1" t="s">
-        <v>2841</v>
+        <v>2806</v>
       </c>
       <c r="Q1" t="s">
-        <v>2842</v>
+        <v>2807</v>
       </c>
       <c r="R1" t="s">
-        <v>2843</v>
+        <v>2808</v>
       </c>
       <c r="S1" t="s">
-        <v>2844</v>
+        <v>2809</v>
       </c>
       <c r="T1" t="s">
-        <v>2845</v>
+        <v>2810</v>
       </c>
       <c r="U1" t="s">
-        <v>2846</v>
+        <v>2811</v>
       </c>
       <c r="V1" t="s">
-        <v>2847</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="2">
@@ -36106,67 +36689,67 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
       </c>
       <c r="D2" t="s">
-        <v>2849</v>
+        <v>2814</v>
       </c>
       <c r="E2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="F2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="G2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="H2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="I2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="J2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="K2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="L2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="M2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="N2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="O2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="P2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="Q2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="R2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="S2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="T2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="U2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="V2" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="3">
@@ -36180,61 +36763,61 @@
         <v>0.9</v>
       </c>
       <c r="D3" t="s">
-        <v>2850</v>
+        <v>2815</v>
       </c>
       <c r="E3" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="F3" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="G3" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="H3" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="I3" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="J3" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="K3" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="L3" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="M3" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="N3" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="O3" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="P3" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="Q3" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="R3" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="S3" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="T3" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="U3" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="V3" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="4">
@@ -36248,66 +36831,66 @@
         <v>0.8</v>
       </c>
       <c r="D4" t="s">
-        <v>2851</v>
+        <v>2816</v>
       </c>
       <c r="E4" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="F4" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="G4" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="H4" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="I4" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="J4" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="K4" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="L4" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="M4" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="N4" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="O4" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="P4" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="Q4" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="R4" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="S4" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="T4" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="U4" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="V4" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -36316,61 +36899,61 @@
         <v>0.7</v>
       </c>
       <c r="D5" t="s">
-        <v>2852</v>
+        <v>2817</v>
       </c>
       <c r="E5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="F5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="G5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="H5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="I5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="J5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="K5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="L5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="M5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="N5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="O5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="P5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="Q5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="R5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="S5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="T5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="U5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="V5" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="6">
@@ -36384,61 +36967,61 @@
         <v>0.6</v>
       </c>
       <c r="D6" t="s">
-        <v>2853</v>
+        <v>2818</v>
       </c>
       <c r="E6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="F6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="G6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="H6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="I6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="J6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="K6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="L6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="M6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="N6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="O6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="P6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="Q6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="R6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="S6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="T6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="U6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="V6" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="7">
@@ -36452,66 +37035,66 @@
         <v>0.5</v>
       </c>
       <c r="D7" t="s">
-        <v>2854</v>
+        <v>2819</v>
       </c>
       <c r="E7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="F7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="G7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="H7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="I7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="J7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="K7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="L7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="M7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="N7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="O7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="P7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="Q7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="R7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="S7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="T7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="U7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="V7" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -36520,66 +37103,66 @@
         <v>0.4</v>
       </c>
       <c r="D8" t="s">
-        <v>2855</v>
+        <v>2820</v>
       </c>
       <c r="E8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="F8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="G8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="H8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="I8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="J8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="K8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="L8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="M8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="N8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="O8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="P8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="Q8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="R8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="S8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="T8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="U8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="V8" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -36588,61 +37171,61 @@
         <v>0.3</v>
       </c>
       <c r="D9" t="s">
-        <v>2856</v>
+        <v>2821</v>
       </c>
       <c r="E9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="F9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="G9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="H9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="I9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="J9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="K9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="L9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="M9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="N9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="O9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="P9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="Q9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="R9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="S9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="T9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="U9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
       <c r="V9" t="s">
-        <v>2848</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="10">
@@ -36656,61 +37239,754 @@
         <v>0.2</v>
       </c>
       <c r="D10" t="s">
-        <v>2857</v>
+        <v>2822</v>
       </c>
       <c r="E10" t="s">
-        <v>2858</v>
+        <v>2813</v>
       </c>
       <c r="F10" t="s">
-        <v>2858</v>
+        <v>2813</v>
       </c>
       <c r="G10" t="s">
-        <v>2858</v>
+        <v>2813</v>
       </c>
       <c r="H10" t="s">
-        <v>2858</v>
+        <v>2813</v>
       </c>
       <c r="I10" t="s">
-        <v>2858</v>
+        <v>2813</v>
       </c>
       <c r="J10" t="s">
-        <v>2858</v>
+        <v>2813</v>
       </c>
       <c r="K10" t="s">
-        <v>2858</v>
+        <v>2813</v>
       </c>
       <c r="L10" t="s">
-        <v>2858</v>
+        <v>2813</v>
       </c>
       <c r="M10" t="s">
-        <v>2858</v>
+        <v>2813</v>
       </c>
       <c r="N10" t="s">
-        <v>2858</v>
+        <v>2813</v>
       </c>
       <c r="O10" t="s">
-        <v>2858</v>
+        <v>2813</v>
       </c>
       <c r="P10" t="s">
-        <v>2858</v>
+        <v>2813</v>
       </c>
       <c r="Q10" t="s">
-        <v>2858</v>
+        <v>2813</v>
       </c>
       <c r="R10" t="s">
-        <v>2858</v>
+        <v>2813</v>
       </c>
       <c r="S10" t="s">
-        <v>2858</v>
+        <v>2813</v>
       </c>
       <c r="T10" t="s">
-        <v>2858</v>
+        <v>2813</v>
       </c>
       <c r="U10" t="s">
-        <v>2858</v>
+        <v>2813</v>
       </c>
       <c r="V10" t="s">
-        <v>2858</v>
+        <v>2813</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="U1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="V1" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2814</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2815</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="P3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="S3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="T3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="V3" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2816</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="S4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="T4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="V4" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="P5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="R5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="S5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="T5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="V5" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2818</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="P6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="R6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="S6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="T6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="V6" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="P7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="R7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="S7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="T7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="V7" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>705</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2820</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="O8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="P8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="R8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="S8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="T8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="V8" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>724</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2813</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2813</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2813</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2813</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2813</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2813</v>
+      </c>
+      <c r="N9" t="s">
+        <v>2813</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2813</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2813</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>2813</v>
+      </c>
+      <c r="R9" t="s">
+        <v>2813</v>
+      </c>
+      <c r="S9" t="s">
+        <v>2813</v>
+      </c>
+      <c r="T9" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U9" t="s">
+        <v>2813</v>
+      </c>
+      <c r="V9" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>741</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2813</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2813</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2813</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2813</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2813</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2813</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2813</v>
+      </c>
+      <c r="N10" t="s">
+        <v>2813</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2813</v>
+      </c>
+      <c r="P10" t="s">
+        <v>2813</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>2813</v>
+      </c>
+      <c r="R10" t="s">
+        <v>2813</v>
+      </c>
+      <c r="S10" t="s">
+        <v>2813</v>
+      </c>
+      <c r="T10" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U10" t="s">
+        <v>2813</v>
+      </c>
+      <c r="V10" t="s">
+        <v>2813</v>
       </c>
     </row>
   </sheetData>
